--- a/data/source/bordeaux/bordeaux.xlsx
+++ b/data/source/bordeaux/bordeaux.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="27720" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="27720" windowHeight="16500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="worksheet" sheetId="8" r:id="rId1"/>
-    <sheet name="segments_going" sheetId="11" r:id="rId2"/>
-    <sheet name="pleiades name lookup" sheetId="10" r:id="rId3"/>
-    <sheet name="19c translation" sheetId="7" r:id="rId4"/>
-    <sheet name="bordeaux worksheet" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="places sequence" sheetId="4" state="hidden" r:id="rId6"/>
-    <sheet name="recogito-download" sheetId="9" r:id="rId7"/>
+    <sheet name="places no-geom" sheetId="12" r:id="rId2"/>
+    <sheet name="segments_out" sheetId="11" r:id="rId3"/>
+    <sheet name="pleiades name lookup" sheetId="10" r:id="rId4"/>
+    <sheet name="19c translation" sheetId="7" r:id="rId5"/>
+    <sheet name="bordeaux worksheet" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="places sequence" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="recogito-download" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="bordeaux_dorvm6vtatvrtt" localSheetId="6">'recogito-download'!$B$1:$M$413</definedName>
+    <definedName name="bordeaux_dorvm6vtatvrtt" localSheetId="7">'recogito-download'!$B$1:$M$413</definedName>
     <definedName name="sequence_out" localSheetId="0">worksheet!$A$1:$O$470</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16042" uniqueCount="3299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16143" uniqueCount="3322">
   <si>
     <t>UUID</t>
   </si>
@@ -9097,6 +9098,9 @@
     <t>id</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Batiana</t>
   </si>
   <si>
@@ -9977,6 +9981,72 @@
   </si>
   <si>
     <t>ad sextum miliarem</t>
+  </si>
+  <si>
+    <t>bor_304</t>
+  </si>
+  <si>
+    <t>bor_306</t>
+  </si>
+  <si>
+    <t>bor_296</t>
+  </si>
+  <si>
+    <t>bor_297</t>
+  </si>
+  <si>
+    <t>bor_298</t>
+  </si>
+  <si>
+    <t>bor_299</t>
+  </si>
+  <si>
+    <t>bor_300</t>
+  </si>
+  <si>
+    <t>bor_301</t>
+  </si>
+  <si>
+    <t>bor_302</t>
+  </si>
+  <si>
+    <t>bor_303</t>
+  </si>
+  <si>
+    <t>bor_305</t>
+  </si>
+  <si>
+    <t>bor_307</t>
+  </si>
+  <si>
+    <t>bor_308</t>
+  </si>
+  <si>
+    <t>bor_309</t>
+  </si>
+  <si>
+    <t>bor_310</t>
+  </si>
+  <si>
+    <t>place_id</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Tutadus,</t>
+  </si>
+  <si>
+    <t>Regio,</t>
+  </si>
+  <si>
+    <t>Bacchaiæ,</t>
+  </si>
+  <si>
+    <t>Basiliscum,</t>
+  </si>
+  <si>
+    <t>Calamon,</t>
   </si>
 </sst>
 </file>
@@ -10361,9 +10431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q470"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="11" sqref="A307:XFD307 A305:XFD305 A287:XFD288 A279:XFD281 A230:XFD230 A225:XFD225 A209:XFD209 A183:XFD183 A181:XFD181 A180:XFD180 A145:XFD145 A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10403,10 +10473,10 @@
         <v>2995</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2996</v>
@@ -10433,10 +10503,10 @@
         <v>3002</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -10489,7 +10559,7 @@
         <v>138599</v>
       </c>
       <c r="Q3" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -10791,7 +10861,7 @@
         <v>2152</v>
       </c>
       <c r="F12" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="M12">
         <v>6</v>
@@ -11797,7 +11867,7 @@
         <v>167627</v>
       </c>
       <c r="Q42" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -11833,7 +11903,7 @@
         <v>167668</v>
       </c>
       <c r="Q43" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -15129,7 +15199,7 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="D147" t="s">
         <v>346</v>
@@ -15447,7 +15517,7 @@
         <v>2221</v>
       </c>
       <c r="F157" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="M157">
         <v>9</v>
@@ -17700,7 +17770,7 @@
         <v>2497</v>
       </c>
       <c r="F227" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="M227">
         <v>12</v>
@@ -18411,7 +18481,7 @@
         <v>1914</v>
       </c>
       <c r="D249" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="E249" t="s">
         <v>2542</v>
@@ -19788,7 +19858,7 @@
         <v>1916</v>
       </c>
       <c r="D291" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="E291" t="s">
         <v>2632</v>
@@ -20489,7 +20559,7 @@
         <v>312</v>
       </c>
       <c r="C313" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="D313" t="s">
         <v>498</v>
@@ -24210,6 +24280,629 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D1">
+        <v>296</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="M1">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2">
+        <v>297</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>179</v>
+      </c>
+      <c r="B3">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D3">
+        <v>298</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2404</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D4">
+        <v>299</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2405</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>182</v>
+      </c>
+      <c r="B5">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2409</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>208</v>
+      </c>
+      <c r="B6">
+        <v>208</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>301</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3318</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2463</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2464</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P6" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>224</v>
+      </c>
+      <c r="B7">
+        <v>224</v>
+      </c>
+      <c r="C7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D7">
+        <v>302</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3317</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2492</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2493</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2494</v>
+      </c>
+      <c r="M7">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P7" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>229</v>
+      </c>
+      <c r="B8">
+        <v>229</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D8">
+        <v>303</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2199</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>278</v>
+      </c>
+      <c r="B9">
+        <v>278</v>
+      </c>
+      <c r="C9" t="s">
+        <v>564</v>
+      </c>
+      <c r="D9">
+        <v>304</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2597</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>279</v>
+      </c>
+      <c r="B10">
+        <v>279</v>
+      </c>
+      <c r="C10" t="s">
+        <v>593</v>
+      </c>
+      <c r="D10">
+        <v>305</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2611</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P10" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>280</v>
+      </c>
+      <c r="B11">
+        <v>280</v>
+      </c>
+      <c r="C11" t="s">
+        <v>615</v>
+      </c>
+      <c r="D11">
+        <v>306</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2612</v>
+      </c>
+      <c r="M11">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P11" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>286</v>
+      </c>
+      <c r="B12">
+        <v>286</v>
+      </c>
+      <c r="C12" t="s">
+        <v>807</v>
+      </c>
+      <c r="D12">
+        <v>307</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2625</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P12" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>287</v>
+      </c>
+      <c r="B13">
+        <v>287</v>
+      </c>
+      <c r="C13" t="s">
+        <v>838</v>
+      </c>
+      <c r="D13">
+        <v>308</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2627</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P13" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>304</v>
+      </c>
+      <c r="B14">
+        <v>304</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D14">
+        <v>309</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2661</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2662</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P14" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>306</v>
+      </c>
+      <c r="B15">
+        <v>306</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D15">
+        <v>310</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2665</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15" t="s">
+        <v>3001</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>3315</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>CONCATENATE("bor_",D1)</f>
+        <v>bor_296</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f t="shared" ref="A19:A32" si="0">CONCATENATE("bor_",D2)</f>
+        <v>bor_297</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>bor_298</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>bor_299</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>bor_300</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>bor_301</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>bor_302</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C24" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>bor_303</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>bor_304</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C26" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>bor_305</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>bor_306</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C28" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>bor_307</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C29" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>bor_308</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C30" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>bor_309</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>bor_310</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I313"/>
   <sheetViews>
@@ -24229,7 +24922,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2075</v>
@@ -24238,16 +24931,16 @@
         <v>2076</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>3295</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3294</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3293</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3000</v>
@@ -29877,7 +30570,7 @@
         <v>1914</v>
       </c>
       <c r="G248" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="H248">
         <v>9</v>
@@ -29894,7 +30587,7 @@
         <v>1914</v>
       </c>
       <c r="E249" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="F249" t="s">
         <v>1386</v>
@@ -30813,7 +31506,7 @@
         <v>1916</v>
       </c>
       <c r="G290" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="H290">
         <v>12</v>
@@ -30830,7 +31523,7 @@
         <v>1916</v>
       </c>
       <c r="E291" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="F291" t="s">
         <v>924</v>
@@ -31304,7 +31997,7 @@
         <v>473</v>
       </c>
       <c r="F312" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="G312" t="s">
         <v>498</v>
@@ -31321,7 +32014,7 @@
         <v>312</v>
       </c>
       <c r="D313" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="E313" t="s">
         <v>498</v>
@@ -31344,7 +32037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B275"/>
   <sheetViews>
@@ -31363,7 +32056,7 @@
         <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -31371,7 +32064,7 @@
         <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -31379,7 +32072,7 @@
         <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -31387,7 +32080,7 @@
         <v>297</v>
       </c>
       <c r="B4" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -31395,7 +32088,7 @@
         <v>327</v>
       </c>
       <c r="B5" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -31403,7 +32096,7 @@
         <v>356</v>
       </c>
       <c r="B6" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -31411,7 +32104,7 @@
         <v>382</v>
       </c>
       <c r="B7" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -31419,7 +32112,7 @@
         <v>413</v>
       </c>
       <c r="B8" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -31427,7 +32120,7 @@
         <v>438</v>
       </c>
       <c r="B9" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -31435,7 +32128,7 @@
         <v>468</v>
       </c>
       <c r="B10" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -31443,7 +32136,7 @@
         <v>346</v>
       </c>
       <c r="B11" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -31451,7 +32144,7 @@
         <v>508</v>
       </c>
       <c r="B12" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -31459,7 +32152,7 @@
         <v>527</v>
       </c>
       <c r="B13" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -31467,7 +32160,7 @@
         <v>561</v>
       </c>
       <c r="B14" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -31475,7 +32168,7 @@
         <v>585</v>
       </c>
       <c r="B15" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -31483,7 +32176,7 @@
         <v>632</v>
       </c>
       <c r="B16" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -31491,7 +32184,7 @@
         <v>660</v>
       </c>
       <c r="B17" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -31499,7 +32192,7 @@
         <v>693</v>
       </c>
       <c r="B18" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -31507,7 +32200,7 @@
         <v>711</v>
       </c>
       <c r="B19" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -31515,7 +32208,7 @@
         <v>732</v>
       </c>
       <c r="B20" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -31523,7 +32216,7 @@
         <v>751</v>
       </c>
       <c r="B21" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -31531,7 +32224,7 @@
         <v>779</v>
       </c>
       <c r="B22" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -31539,7 +32232,7 @@
         <v>799</v>
       </c>
       <c r="B23" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -31547,7 +32240,7 @@
         <v>822</v>
       </c>
       <c r="B24" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -31555,7 +32248,7 @@
         <v>846</v>
       </c>
       <c r="B25" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -31563,7 +32256,7 @@
         <v>870</v>
       </c>
       <c r="B26" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -31571,7 +32264,7 @@
         <v>920</v>
       </c>
       <c r="B27" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -31579,7 +32272,7 @@
         <v>946</v>
       </c>
       <c r="B28" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -31587,7 +32280,7 @@
         <v>966</v>
       </c>
       <c r="B29" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -31595,7 +32288,7 @@
         <v>991</v>
       </c>
       <c r="B30" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -31603,7 +32296,7 @@
         <v>1016</v>
       </c>
       <c r="B31" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -31611,7 +32304,7 @@
         <v>1095</v>
       </c>
       <c r="B32" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -31619,7 +32312,7 @@
         <v>1116</v>
       </c>
       <c r="B33" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -31627,7 +32320,7 @@
         <v>1138</v>
       </c>
       <c r="B34" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -31635,7 +32328,7 @@
         <v>1154</v>
       </c>
       <c r="B35" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -31643,7 +32336,7 @@
         <v>1171</v>
       </c>
       <c r="B36" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -31651,7 +32344,7 @@
         <v>1192</v>
       </c>
       <c r="B37" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -31659,7 +32352,7 @@
         <v>1220</v>
       </c>
       <c r="B38" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -31667,7 +32360,7 @@
         <v>1246</v>
       </c>
       <c r="B39" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -31675,7 +32368,7 @@
         <v>1264</v>
       </c>
       <c r="B40" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -31683,7 +32376,7 @@
         <v>1292</v>
       </c>
       <c r="B41" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -31691,7 +32384,7 @@
         <v>1308</v>
       </c>
       <c r="B42" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -31699,7 +32392,7 @@
         <v>1334</v>
       </c>
       <c r="B43" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -31707,7 +32400,7 @@
         <v>1352</v>
       </c>
       <c r="B44" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -31715,7 +32408,7 @@
         <v>1377</v>
       </c>
       <c r="B45" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -31723,7 +32416,7 @@
         <v>1403</v>
       </c>
       <c r="B46" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -31731,7 +32424,7 @@
         <v>1432</v>
       </c>
       <c r="B47" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -31739,7 +32432,7 @@
         <v>1457</v>
       </c>
       <c r="B48" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -31747,7 +32440,7 @@
         <v>1510</v>
       </c>
       <c r="B49" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -31755,7 +32448,7 @@
         <v>1532</v>
       </c>
       <c r="B50" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -31763,7 +32456,7 @@
         <v>1558</v>
       </c>
       <c r="B51" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -31771,7 +32464,7 @@
         <v>1592</v>
       </c>
       <c r="B52" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -31779,7 +32472,7 @@
         <v>1607</v>
       </c>
       <c r="B53" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -31787,7 +32480,7 @@
         <v>1622</v>
       </c>
       <c r="B54" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -31795,7 +32488,7 @@
         <v>1666</v>
       </c>
       <c r="B55" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -31803,7 +32496,7 @@
         <v>1681</v>
       </c>
       <c r="B56" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -31811,7 +32504,7 @@
         <v>1715</v>
       </c>
       <c r="B57" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -31819,7 +32512,7 @@
         <v>1729</v>
       </c>
       <c r="B58" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -31827,7 +32520,7 @@
         <v>1743</v>
       </c>
       <c r="B59" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -31835,7 +32528,7 @@
         <v>1784</v>
       </c>
       <c r="B60" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -31843,7 +32536,7 @@
         <v>1801</v>
       </c>
       <c r="B61" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -31851,7 +32544,7 @@
         <v>1815</v>
       </c>
       <c r="B62" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -31859,7 +32552,7 @@
         <v>1820</v>
       </c>
       <c r="B63" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -31867,7 +32560,7 @@
         <v>1825</v>
       </c>
       <c r="B64" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -31875,7 +32568,7 @@
         <v>1837</v>
       </c>
       <c r="B65" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -31883,7 +32576,7 @@
         <v>1842</v>
       </c>
       <c r="B66" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -31891,7 +32584,7 @@
         <v>1847</v>
       </c>
       <c r="B67" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -31899,7 +32592,7 @@
         <v>1852</v>
       </c>
       <c r="B68" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -31907,7 +32600,7 @@
         <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -31915,7 +32608,7 @@
         <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -31923,7 +32616,7 @@
         <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -31931,7 +32624,7 @@
         <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -31939,7 +32632,7 @@
         <v>242</v>
       </c>
       <c r="B73" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -31947,7 +32640,7 @@
         <v>263</v>
       </c>
       <c r="B74" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -31955,7 +32648,7 @@
         <v>286</v>
       </c>
       <c r="B75" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -31963,7 +32656,7 @@
         <v>312</v>
       </c>
       <c r="B76" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -31971,7 +32664,7 @@
         <v>342</v>
       </c>
       <c r="B77" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -31979,7 +32672,7 @@
         <v>361</v>
       </c>
       <c r="B78" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -31987,7 +32680,7 @@
         <v>377</v>
       </c>
       <c r="B79" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -31995,7 +32688,7 @@
         <v>398</v>
       </c>
       <c r="B80" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -32003,7 +32696,7 @@
         <v>429</v>
       </c>
       <c r="B81" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -32011,7 +32704,7 @@
         <v>482</v>
       </c>
       <c r="B82" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -32019,7 +32712,7 @@
         <v>540</v>
       </c>
       <c r="B83" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -32027,7 +32720,7 @@
         <v>569</v>
       </c>
       <c r="B84" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -32035,7 +32728,7 @@
         <v>590</v>
       </c>
       <c r="B85" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -32043,7 +32736,7 @@
         <v>612</v>
       </c>
       <c r="B86" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -32051,7 +32744,7 @@
         <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -32059,7 +32752,7 @@
         <v>784</v>
       </c>
       <c r="B88" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -32067,7 +32760,7 @@
         <v>890</v>
       </c>
       <c r="B89" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -32075,7 +32768,7 @@
         <v>936</v>
       </c>
       <c r="B90" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -32083,7 +32776,7 @@
         <v>956</v>
       </c>
       <c r="B91" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -32091,7 +32784,7 @@
         <v>986</v>
       </c>
       <c r="B92" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -32099,7 +32792,7 @@
         <v>1054</v>
       </c>
       <c r="B93" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -32107,7 +32800,7 @@
         <v>1075</v>
       </c>
       <c r="B94" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -32115,7 +32808,7 @@
         <v>1090</v>
       </c>
       <c r="B95" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -32123,7 +32816,7 @@
         <v>1109</v>
       </c>
       <c r="B96" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -32131,7 +32824,7 @@
         <v>1126</v>
       </c>
       <c r="B97" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -32139,7 +32832,7 @@
         <v>1183</v>
       </c>
       <c r="B98" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -32147,7 +32840,7 @@
         <v>1205</v>
       </c>
       <c r="B99" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -32155,7 +32848,7 @@
         <v>1231</v>
       </c>
       <c r="B100" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -32163,7 +32856,7 @@
         <v>1254</v>
       </c>
       <c r="B101" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -32171,7 +32864,7 @@
         <v>1274</v>
       </c>
       <c r="B102" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -32179,7 +32872,7 @@
         <v>1303</v>
       </c>
       <c r="B103" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -32187,7 +32880,7 @@
         <v>1321</v>
       </c>
       <c r="B104" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -32195,7 +32888,7 @@
         <v>1339</v>
       </c>
       <c r="B105" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -32203,7 +32896,7 @@
         <v>1357</v>
       </c>
       <c r="B106" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -32211,7 +32904,7 @@
         <v>1382</v>
       </c>
       <c r="B107" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -32219,7 +32912,7 @@
         <v>1398</v>
       </c>
       <c r="B108" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -32227,7 +32920,7 @@
         <v>1418</v>
       </c>
       <c r="B109" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -32235,7 +32928,7 @@
         <v>1470</v>
       </c>
       <c r="B110" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -32243,7 +32936,7 @@
         <v>1498</v>
       </c>
       <c r="B111" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -32251,7 +32944,7 @@
         <v>1538</v>
       </c>
       <c r="B112" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -32259,7 +32952,7 @@
         <v>1553</v>
       </c>
       <c r="B113" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -32267,7 +32960,7 @@
         <v>1573</v>
       </c>
       <c r="B114" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -32275,7 +32968,7 @@
         <v>1597</v>
       </c>
       <c r="B115" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -32283,7 +32976,7 @@
         <v>1612</v>
       </c>
       <c r="B116" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -32291,7 +32984,7 @@
         <v>1627</v>
       </c>
       <c r="B117" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -32299,7 +32992,7 @@
         <v>1641</v>
       </c>
       <c r="B118" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -32307,7 +33000,7 @@
         <v>1656</v>
       </c>
       <c r="B119" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -32315,7 +33008,7 @@
         <v>1671</v>
       </c>
       <c r="B120" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -32323,7 +33016,7 @@
         <v>56</v>
       </c>
       <c r="B121" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -32331,7 +33024,7 @@
         <v>145</v>
       </c>
       <c r="B122" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -32339,7 +33032,7 @@
         <v>158</v>
       </c>
       <c r="B123" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -32347,7 +33040,7 @@
         <v>184</v>
       </c>
       <c r="B124" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -32355,7 +33048,7 @@
         <v>203</v>
       </c>
       <c r="B125" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -32363,7 +33056,7 @@
         <v>222</v>
       </c>
       <c r="B126" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -32371,7 +33064,7 @@
         <v>319</v>
       </c>
       <c r="B127" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -32379,7 +33072,7 @@
         <v>372</v>
       </c>
       <c r="B128" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -32387,7 +33080,7 @@
         <v>403</v>
       </c>
       <c r="B129" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -32395,7 +33088,7 @@
         <v>424</v>
       </c>
       <c r="B130" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -32403,7 +33096,7 @@
         <v>451</v>
       </c>
       <c r="B131" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -32411,7 +33104,7 @@
         <v>531</v>
       </c>
       <c r="B132" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -32419,7 +33112,7 @@
         <v>556</v>
       </c>
       <c r="B133" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -32427,7 +33120,7 @@
         <v>580</v>
       </c>
       <c r="B134" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -32435,7 +33128,7 @@
         <v>603</v>
       </c>
       <c r="B135" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -32443,7 +33136,7 @@
         <v>652</v>
       </c>
       <c r="B136" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -32451,7 +33144,7 @@
         <v>700</v>
       </c>
       <c r="B137" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -32459,7 +33152,7 @@
         <v>722</v>
       </c>
       <c r="B138" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -32467,7 +33160,7 @@
         <v>746</v>
       </c>
       <c r="B139" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -32475,7 +33168,7 @@
         <v>769</v>
       </c>
       <c r="B140" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -32483,7 +33176,7 @@
         <v>794</v>
       </c>
       <c r="B141" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -32491,7 +33184,7 @@
         <v>814</v>
       </c>
       <c r="B142" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -32499,7 +33192,7 @@
         <v>832</v>
       </c>
       <c r="B143" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -32507,7 +33200,7 @@
         <v>851</v>
       </c>
       <c r="B144" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -32515,7 +33208,7 @@
         <v>880</v>
       </c>
       <c r="B145" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -32523,7 +33216,7 @@
         <v>906</v>
       </c>
       <c r="B146" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -32531,7 +33224,7 @@
         <v>931</v>
       </c>
       <c r="B147" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -32539,7 +33232,7 @@
         <v>961</v>
       </c>
       <c r="B148" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -32547,7 +33240,7 @@
         <v>972</v>
       </c>
       <c r="B149" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -32555,7 +33248,7 @@
         <v>1001</v>
       </c>
       <c r="B150" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -32563,7 +33256,7 @@
         <v>1035</v>
       </c>
       <c r="B151" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -32571,7 +33264,7 @@
         <v>1104</v>
       </c>
       <c r="B152" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -32579,7 +33272,7 @@
         <v>1121</v>
       </c>
       <c r="B153" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -32587,7 +33280,7 @@
         <v>1144</v>
       </c>
       <c r="B154" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -32595,7 +33288,7 @@
         <v>1166</v>
       </c>
       <c r="B155" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -32603,7 +33296,7 @@
         <v>1178</v>
       </c>
       <c r="B156" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -32611,7 +33304,7 @@
         <v>1225</v>
       </c>
       <c r="B157" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -32619,7 +33312,7 @@
         <v>1298</v>
       </c>
       <c r="B158" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -32627,7 +33320,7 @@
         <v>1344</v>
       </c>
       <c r="B159" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -32635,7 +33328,7 @@
         <v>1372</v>
       </c>
       <c r="B160" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -32643,7 +33336,7 @@
         <v>1393</v>
       </c>
       <c r="B161" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -32651,7 +33344,7 @@
         <v>1413</v>
       </c>
       <c r="B162" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -32659,7 +33352,7 @@
         <v>1428</v>
       </c>
       <c r="B163" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -32667,7 +33360,7 @@
         <v>1462</v>
       </c>
       <c r="B164" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -32675,7 +33368,7 @@
         <v>1480</v>
       </c>
       <c r="B165" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -32683,7 +33376,7 @@
         <v>1494</v>
       </c>
       <c r="B166" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -32691,7 +33384,7 @@
         <v>1522</v>
       </c>
       <c r="B167" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -32699,7 +33392,7 @@
         <v>1543</v>
       </c>
       <c r="B168" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -32707,7 +33400,7 @@
         <v>1563</v>
       </c>
       <c r="B169" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -32715,7 +33408,7 @@
         <v>1582</v>
       </c>
       <c r="B170" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -32723,7 +33416,7 @@
         <v>1602</v>
       </c>
       <c r="B171" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -32731,7 +33424,7 @@
         <v>1617</v>
       </c>
       <c r="B172" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -32739,7 +33432,7 @@
         <v>1632</v>
       </c>
       <c r="B173" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -32747,7 +33440,7 @@
         <v>1646</v>
       </c>
       <c r="B174" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -32755,7 +33448,7 @@
         <v>1661</v>
       </c>
       <c r="B175" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -32763,7 +33456,7 @@
         <v>1696</v>
       </c>
       <c r="B176" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -32771,7 +33464,7 @@
         <v>91</v>
       </c>
       <c r="B177" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -32779,7 +33472,7 @@
         <v>1748</v>
       </c>
       <c r="B178" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -32787,7 +33480,7 @@
         <v>1760</v>
       </c>
       <c r="B179" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -32795,7 +33488,7 @@
         <v>1768</v>
       </c>
       <c r="B180" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -32803,7 +33496,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -32811,7 +33504,7 @@
         <v>134</v>
       </c>
       <c r="B182" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -32819,7 +33512,7 @@
         <v>227</v>
       </c>
       <c r="B183" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -32827,7 +33520,7 @@
         <v>268</v>
       </c>
       <c r="B184" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -32835,7 +33528,7 @@
         <v>302</v>
       </c>
       <c r="B185" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -32843,7 +33536,7 @@
         <v>332</v>
       </c>
       <c r="B186" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -32851,7 +33544,7 @@
         <v>408</v>
       </c>
       <c r="B187" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -32859,7 +33552,7 @@
         <v>433</v>
       </c>
       <c r="B188" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -32867,7 +33560,7 @@
         <v>535</v>
       </c>
       <c r="B189" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -32875,7 +33568,7 @@
         <v>551</v>
       </c>
       <c r="B190" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -32883,7 +33576,7 @@
         <v>575</v>
       </c>
       <c r="B191" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -32891,7 +33584,7 @@
         <v>598</v>
       </c>
       <c r="B192" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -32899,7 +33592,7 @@
         <v>620</v>
       </c>
       <c r="B193" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -32907,7 +33600,7 @@
         <v>647</v>
       </c>
       <c r="B194" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -32915,7 +33608,7 @@
         <v>664</v>
       </c>
       <c r="B195" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -32923,7 +33616,7 @@
         <v>683</v>
       </c>
       <c r="B196" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -32931,7 +33624,7 @@
         <v>727</v>
       </c>
       <c r="B197" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -32939,7 +33632,7 @@
         <v>742</v>
       </c>
       <c r="B198" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -32947,7 +33640,7 @@
         <v>774</v>
       </c>
       <c r="B199" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -32955,7 +33648,7 @@
         <v>789</v>
       </c>
       <c r="B200" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -32963,7 +33656,7 @@
         <v>855</v>
       </c>
       <c r="B201" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -32971,7 +33664,7 @@
         <v>875</v>
       </c>
       <c r="B202" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -32979,7 +33672,7 @@
         <v>915</v>
       </c>
       <c r="B203" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -32987,7 +33680,7 @@
         <v>941</v>
       </c>
       <c r="B204" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -32995,7 +33688,7 @@
         <v>976</v>
       </c>
       <c r="B205" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -33003,7 +33696,7 @@
         <v>996</v>
       </c>
       <c r="B206" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -33011,7 +33704,7 @@
         <v>1030</v>
       </c>
       <c r="B207" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -33019,7 +33712,7 @@
         <v>1045</v>
       </c>
       <c r="B208" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -33027,7 +33720,7 @@
         <v>1063</v>
       </c>
       <c r="B209" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -33035,7 +33728,7 @@
         <v>1085</v>
       </c>
       <c r="B210" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -33043,7 +33736,7 @@
         <v>107</v>
       </c>
       <c r="B211" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -33051,7 +33744,7 @@
         <v>119</v>
       </c>
       <c r="B212" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -33059,7 +33752,7 @@
         <v>1215</v>
       </c>
       <c r="B213" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -33067,7 +33760,7 @@
         <v>1236</v>
       </c>
       <c r="B214" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -33075,7 +33768,7 @@
         <v>1259</v>
       </c>
       <c r="B215" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -33083,7 +33776,7 @@
         <v>1282</v>
       </c>
       <c r="B216" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -33091,15 +33784,15 @@
         <v>1313</v>
       </c>
       <c r="B217" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="B218" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -33107,7 +33800,7 @@
         <v>1388</v>
       </c>
       <c r="B219" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -33115,7 +33808,7 @@
         <v>1408</v>
       </c>
       <c r="B220" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -33123,7 +33816,7 @@
         <v>1423</v>
       </c>
       <c r="B221" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -33131,7 +33824,7 @@
         <v>1452</v>
       </c>
       <c r="B222" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -33139,7 +33832,7 @@
         <v>1476</v>
       </c>
       <c r="B223" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -33147,7 +33840,7 @@
         <v>1505</v>
       </c>
       <c r="B224" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -33155,7 +33848,7 @@
         <v>1527</v>
       </c>
       <c r="B225" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -33163,7 +33856,7 @@
         <v>1548</v>
       </c>
       <c r="B226" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -33171,7 +33864,7 @@
         <v>1568</v>
       </c>
       <c r="B227" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -33179,7 +33872,7 @@
         <v>1587</v>
       </c>
       <c r="B228" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -33187,7 +33880,7 @@
         <v>1637</v>
       </c>
       <c r="B229" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -33195,7 +33888,7 @@
         <v>1676</v>
       </c>
       <c r="B230" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -33203,7 +33896,7 @@
         <v>1691</v>
       </c>
       <c r="B231" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -33211,7 +33904,7 @@
         <v>1708</v>
       </c>
       <c r="B232" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -33219,7 +33912,7 @@
         <v>1723</v>
       </c>
       <c r="B233" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -33227,7 +33920,7 @@
         <v>1755</v>
       </c>
       <c r="B234" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -33235,7 +33928,7 @@
         <v>51</v>
       </c>
       <c r="B235" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -33243,7 +33936,7 @@
         <v>168</v>
       </c>
       <c r="B236" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -33251,7 +33944,7 @@
         <v>190</v>
       </c>
       <c r="B237" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -33259,7 +33952,7 @@
         <v>208</v>
       </c>
       <c r="B238" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -33267,7 +33960,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -33275,7 +33968,7 @@
         <v>258</v>
       </c>
       <c r="B240" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -33283,7 +33976,7 @@
         <v>278</v>
       </c>
       <c r="B241" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -33291,7 +33984,7 @@
         <v>307</v>
       </c>
       <c r="B242" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -33299,7 +33992,7 @@
         <v>351</v>
       </c>
       <c r="B243" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -33307,7 +34000,7 @@
         <v>392</v>
       </c>
       <c r="B244" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -33315,7 +34008,7 @@
         <v>419</v>
       </c>
       <c r="B245" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -33323,7 +34016,7 @@
         <v>513</v>
       </c>
       <c r="B246" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -33331,7 +34024,7 @@
         <v>546</v>
       </c>
       <c r="B247" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -33339,7 +34032,7 @@
         <v>637</v>
       </c>
       <c r="B248" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -33347,7 +34040,7 @@
         <v>24</v>
       </c>
       <c r="B249" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -33355,7 +34048,7 @@
         <v>688</v>
       </c>
       <c r="B250" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -33363,7 +34056,7 @@
         <v>737</v>
       </c>
       <c r="B251" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -33371,7 +34064,7 @@
         <v>760</v>
       </c>
       <c r="B252" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -33379,7 +34072,7 @@
         <v>860</v>
       </c>
       <c r="B253" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -33387,15 +34080,15 @@
         <v>885</v>
       </c>
       <c r="B254" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="B255" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -33403,7 +34096,7 @@
         <v>926</v>
       </c>
       <c r="B256" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -33411,7 +34104,7 @@
         <v>951</v>
       </c>
       <c r="B257" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -33419,7 +34112,7 @@
         <v>981</v>
       </c>
       <c r="B258" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -33427,7 +34120,7 @@
         <v>1006</v>
       </c>
       <c r="B259" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -33435,7 +34128,7 @@
         <v>1021</v>
       </c>
       <c r="B260" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -33443,7 +34136,7 @@
         <v>1040</v>
       </c>
       <c r="B261" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -33451,7 +34144,7 @@
         <v>1068</v>
       </c>
       <c r="B262" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -33459,7 +34152,7 @@
         <v>1080</v>
       </c>
       <c r="B263" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -33467,7 +34160,7 @@
         <v>97</v>
       </c>
       <c r="B264" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -33475,7 +34168,7 @@
         <v>1241</v>
       </c>
       <c r="B265" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -33483,7 +34176,7 @@
         <v>1269</v>
       </c>
       <c r="B266" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -33491,7 +34184,7 @@
         <v>1287</v>
       </c>
       <c r="B267" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -33499,7 +34192,7 @@
         <v>1329</v>
       </c>
       <c r="B268" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -33507,7 +34200,7 @@
         <v>47</v>
       </c>
       <c r="B269" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -33515,7 +34208,7 @@
         <v>292</v>
       </c>
       <c r="B270" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -33523,7 +34216,7 @@
         <v>337</v>
       </c>
       <c r="B271" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -33531,7 +34224,7 @@
         <v>443</v>
       </c>
       <c r="B272" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -33539,7 +34232,7 @@
         <v>473</v>
       </c>
       <c r="B273" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -33547,7 +34240,7 @@
         <v>498</v>
       </c>
       <c r="B274" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -33555,7 +34248,7 @@
         <v>41</v>
       </c>
       <c r="B275" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
     </row>
   </sheetData>
@@ -33563,7 +34256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K470"/>
   <sheetViews>
@@ -43048,7 +43741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M413"/>
   <sheetViews>
@@ -57668,7 +58361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L464"/>
   <sheetViews>
@@ -71102,7 +71795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M414"/>
   <sheetViews>
@@ -71128,7 +71821,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -72116,7 +72809,7 @@
         <v>488</v>
       </c>
       <c r="G27" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="H27" s="15">
         <v>43.647849999999998</v>
@@ -72136,7 +72829,7 @@
         <v>344</v>
       </c>
       <c r="C28" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="D28" t="s">
         <v>345</v>
